--- a/biology/Médecine/Hôpitaux_universitaires_Virgen_del_Rocío/Hôpitaux_universitaires_Virgen_del_Rocío.xlsx
+++ b/biology/Médecine/Hôpitaux_universitaires_Virgen_del_Rocío/Hôpitaux_universitaires_Virgen_del_Rocío.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_universitaires_Virgen_del_Roc%C3%ADo</t>
+          <t>Hôpitaux_universitaires_Virgen_del_Rocío</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Hôpitaux universitaires Virgen del Rocío forment le principal centre hospitalier de Séville (Espagne).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_universitaires_Virgen_del_Roc%C3%ADo</t>
+          <t>Hôpitaux_universitaires_Virgen_del_Rocío</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Campus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site principal du centre hospitalier se trouve dans le district Sud de la ville, sur l'Avenue Manuel Siurot, et est composé de plusieurs bâtiments : hôpital général (616 lits), hôpital de la femme (185 lits, 4 salles d'accouchement), hôpital pédiatrique (189 lits), centre de coordination de psychiatrie, hôpital de rééducation et de traumatologie (302 lits), centre de diagnostic et de traitement ambulatoire, édifice des laboratoires et centre de dialyse, bâtiment d'anatomo-pathologie, édifice administratif, bâtiment des ressources humaines et centre de documentation.
 Toutes les spécialités de la médecine y sont représentées.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_universitaires_Virgen_del_Roc%C3%ADo</t>
+          <t>Hôpitaux_universitaires_Virgen_del_Rocío</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Hôpital de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hôpitaux Virgen des Rocío représentent l'hôpital de base pour une partie de la ville de Séville, une partie de la comarque d'El Aljarafe et pour le sud de Séville, ce qui représente 587 226 habitants. En outre, il est l'hôpital de référence provincial pour 959 888 habitants de plus (des communes du nord et du sud de Séville et de la région d'Osuna) et l'hôpital de référence régional pour les provinces de Cadix et de Huelva, ce qui représente une population supplémentaire de 1 241 376 d'habitants. Pour certaines spécialités comme la néphrologie pédiatrique, par exemple, il est le centre de référence pour le reste de la communauté autonome d'Andalousie, celle d'Estrémadure et pour les villes autonomes de Ceuta et de Melilla.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_universitaires_Virgen_del_Roc%C3%ADo</t>
+          <t>Hôpitaux_universitaires_Virgen_del_Rocío</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,13 +596,88 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clinique
-Le centre hospitalier compte 1 366 lits. Il employait 8 055 personnes (2,38 % des emplois de la ville) en 2006, dont 1 433 médecins et 3 704 infirmières. Le personnel compte 70 % de femmes. 
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier compte 1 366 lits. Il employait 8 055 personnes (2,38 % des emplois de la ville) en 2006, dont 1 433 médecins et 3 704 infirmières. Le personnel compte 70 % de femmes. 
 En 2006, son budget était de 439 millions d'euros. Son activité clinique se résumait la même année à 54 381 hospitalisations, 310 422 urgences, 62 046 interventions chirurgicales, 1 013 763 consultations, 8 882 accouchements (dont 16,9 % de césariennes) et 287 transplantations.
-Recherche
-En 2006, 373 projets de recherche étaient en cours. Entre 2001 et 2006, cela représentait un budget total de plus de 5 millions d'euros. Le centre est le leader andalou de la recherche médicale et se trouve également dans les premières places au niveau national.
-Formation et enseignement
-En 2006, 1 791 étudiants en médecine et internes étaient formés dans le centre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpitaux_universitaires_Virgen_del_Rocío</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pitaux_universitaires_Virgen_del_Roc%C3%ADo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Statistiques[1]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recherche</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, 373 projets de recherche étaient en cours. Entre 2001 et 2006, cela représentait un budget total de plus de 5 millions d'euros. Le centre est le leader andalou de la recherche médicale et se trouve également dans les premières places au niveau national.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hôpitaux_universitaires_Virgen_del_Rocío</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pitaux_universitaires_Virgen_del_Roc%C3%ADo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Statistiques[1]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Formation et enseignement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, 1 791 étudiants en médecine et internes étaient formés dans le centre.
 			Bâtiment de diagnostic et traitement ambulatoire
 			Bâtiment de traumatologie et rééducation
 			Bâtiment du service d'anatomo-pathologie
